--- a/TAMASHA.xlsx
+++ b/TAMASHA.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="198">
   <si>
     <t>APT_NUMBER</t>
   </si>
@@ -556,6 +556,63 @@
   </si>
   <si>
     <t>216</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>52.49</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>53.7</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>78.43</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>96.62</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>132.03</t>
+  </si>
+  <si>
+    <t>139</t>
   </si>
 </sst>
 </file>
@@ -574,12 +631,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -594,9 +657,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -899,16 +964,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I107"/>
+  <dimension ref="A3:M121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -934,7 +1003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -960,7 +1029,7 @@
         <v>20544560</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -986,7 +1055,7 @@
         <v>20823140</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1011,8 +1080,18 @@
       <c r="I6">
         <v>20931290</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K6">
+        <v>541000</v>
+      </c>
+      <c r="L6">
+        <v>20931290</v>
+      </c>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1037,8 +1116,18 @@
       <c r="I7">
         <v>20945740</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K7">
+        <v>562000</v>
+      </c>
+      <c r="L7">
+        <v>20945740</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1063,8 +1152,18 @@
       <c r="I8">
         <v>21191040</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K8">
+        <v>576000</v>
+      </c>
+      <c r="L8">
+        <v>21191040</v>
+      </c>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1089,8 +1188,18 @@
       <c r="I9">
         <v>21191040</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K9">
+        <v>576000</v>
+      </c>
+      <c r="L9">
+        <v>21191040</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1115,8 +1224,18 @@
       <c r="I10">
         <v>21318440</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K10">
+        <v>572000</v>
+      </c>
+      <c r="L10">
+        <v>21318440</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1142,7 +1261,7 @@
         <v>21318440</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1167,8 +1286,18 @@
       <c r="I12">
         <v>21350760</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K12">
+        <v>543000</v>
+      </c>
+      <c r="L12">
+        <v>21350760</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1193,8 +1322,18 @@
       <c r="I13">
         <v>21389140</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K13">
+        <v>566000</v>
+      </c>
+      <c r="L13">
+        <v>21389140</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1220,7 +1359,7 @@
         <v>21443940</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1245,8 +1384,18 @@
       <c r="I15">
         <v>21464720</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K15">
+        <v>568000</v>
+      </c>
+      <c r="L15">
+        <v>21464720</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1272,7 +1421,7 @@
         <v>21654360</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1297,8 +1446,18 @@
       <c r="I17">
         <v>21720000</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K17">
+        <v>543000</v>
+      </c>
+      <c r="L17">
+        <v>21720000</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1323,8 +1482,18 @@
       <c r="I18">
         <v>21828240</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K18">
+        <v>568000</v>
+      </c>
+      <c r="L18">
+        <v>21828240</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1350,7 +1519,7 @@
         <v>21828240</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1376,7 +1545,7 @@
         <v>21907760</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1401,8 +1570,18 @@
       <c r="I21">
         <v>21981960</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K21">
+        <v>546000</v>
+      </c>
+      <c r="L21">
+        <v>21981960</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1428,7 +1607,7 @@
         <v>22039840</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1453,8 +1632,18 @@
       <c r="I23">
         <v>22045400</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K23">
+        <v>556000</v>
+      </c>
+      <c r="L23">
+        <v>22045400</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1479,8 +1668,18 @@
       <c r="I24">
         <v>22045400</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K24">
+        <v>556000</v>
+      </c>
+      <c r="L24">
+        <v>22045400</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1506,7 +1705,7 @@
         <v>22095500</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1531,8 +1730,18 @@
       <c r="I26">
         <v>22120000</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K26">
+        <v>553000</v>
+      </c>
+      <c r="L26">
+        <v>22120000</v>
+      </c>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1557,8 +1766,18 @@
       <c r="I27">
         <v>22120000</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K27">
+        <v>553000</v>
+      </c>
+      <c r="L27">
+        <v>22120000</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1583,8 +1802,17 @@
       <c r="I28">
         <v>22223520</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K28">
+        <v>552000</v>
+      </c>
+      <c r="L28">
+        <v>22223520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1609,8 +1837,17 @@
       <c r="I29">
         <v>22304040</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K29">
+        <v>554000</v>
+      </c>
+      <c r="L29">
+        <v>22304040</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1636,7 +1873,7 @@
         <v>22426750</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1662,7 +1899,7 @@
         <v>22426750</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>64</v>
       </c>
@@ -1688,7 +1925,7 @@
         <v>22639550</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -1714,7 +1951,7 @@
         <v>22729980</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1740,7 +1977,7 @@
         <v>22733760</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1766,7 +2003,7 @@
         <v>22797100</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -1792,7 +2029,7 @@
         <v>22797100</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -1817,8 +2054,17 @@
       <c r="I37">
         <v>22797100</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K37">
+        <v>554000</v>
+      </c>
+      <c r="L37">
+        <v>22797100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -1843,8 +2089,17 @@
       <c r="I38">
         <v>22797100</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K38">
+        <v>554000</v>
+      </c>
+      <c r="L38">
+        <v>22797100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1869,8 +2124,17 @@
       <c r="I39">
         <v>22950000</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K39">
+        <v>540000</v>
+      </c>
+      <c r="L39">
+        <v>22950000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1895,8 +2159,17 @@
       <c r="I40">
         <v>22960110</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K40">
+        <v>573000</v>
+      </c>
+      <c r="L40">
+        <v>22960110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -1921,8 +2194,17 @@
       <c r="I41">
         <v>23023000</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K41">
+        <v>550000</v>
+      </c>
+      <c r="L41">
+        <v>23023000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1947,8 +2229,17 @@
       <c r="I42">
         <v>23023000</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K42">
+        <v>550000</v>
+      </c>
+      <c r="L42">
+        <v>23023000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -1973,8 +2264,17 @@
       <c r="I43">
         <v>23151660</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K43">
+        <v>554000</v>
+      </c>
+      <c r="L43">
+        <v>23151660</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -1999,8 +2299,17 @@
       <c r="I44">
         <v>23151660</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K44">
+        <v>554000</v>
+      </c>
+      <c r="L44">
+        <v>23151660</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2026,7 +2335,7 @@
         <v>23193300</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -2051,8 +2360,17 @@
       <c r="I46">
         <v>23205000</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K46">
+        <v>546000</v>
+      </c>
+      <c r="L46">
+        <v>23205000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -2078,7 +2396,7 @@
         <v>23274680</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -2104,7 +2422,7 @@
         <v>23290000</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -2129,8 +2447,17 @@
       <c r="I49">
         <v>25633390</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K49">
+        <v>563000</v>
+      </c>
+      <c r="L49">
+        <v>25633390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -2155,8 +2482,17 @@
       <c r="I50">
         <v>25733430</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K50">
+        <v>573000</v>
+      </c>
+      <c r="L50">
+        <v>25733430</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -2182,7 +2518,7 @@
         <v>25733430</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -2207,8 +2543,17 @@
       <c r="I52">
         <v>25733430</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K52">
+        <v>573000</v>
+      </c>
+      <c r="L52">
+        <v>25733430</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -2233,8 +2578,17 @@
       <c r="I53">
         <v>26088690</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K53">
+        <v>573000</v>
+      </c>
+      <c r="L53">
+        <v>26088690</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -2259,8 +2613,17 @@
       <c r="I54">
         <v>26088690</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K54">
+        <v>573000</v>
+      </c>
+      <c r="L54">
+        <v>26088690</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>98</v>
       </c>
@@ -2285,8 +2648,17 @@
       <c r="I55">
         <v>28269930</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K55">
+        <v>519000</v>
+      </c>
+      <c r="L55">
+        <v>28269930</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>101</v>
       </c>
@@ -2311,8 +2683,17 @@
       <c r="I56">
         <v>28269930</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K56">
+        <v>519000</v>
+      </c>
+      <c r="L56">
+        <v>28269930</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
@@ -2338,7 +2719,7 @@
         <v>28269930</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>103</v>
       </c>
@@ -2363,8 +2744,17 @@
       <c r="I58">
         <v>28269930</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K58">
+        <v>519000</v>
+      </c>
+      <c r="L58">
+        <v>28269930</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>104</v>
       </c>
@@ -2389,8 +2779,17 @@
       <c r="I59">
         <v>28269930</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K59">
+        <v>519000</v>
+      </c>
+      <c r="L59">
+        <v>28269930</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>105</v>
       </c>
@@ -2415,8 +2814,17 @@
       <c r="I60">
         <v>28434480</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K60">
+        <v>514000</v>
+      </c>
+      <c r="L60">
+        <v>28434480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -2441,8 +2849,17 @@
       <c r="I61">
         <v>28600440</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K61">
+        <v>517000</v>
+      </c>
+      <c r="L61">
+        <v>28600440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -2468,7 +2885,7 @@
         <v>30146220</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>110</v>
       </c>
@@ -2494,7 +2911,7 @@
         <v>30283380</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -2519,8 +2936,17 @@
       <c r="I64">
         <v>30283380</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K64">
+        <v>498000</v>
+      </c>
+      <c r="L64">
+        <v>30283380</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>113</v>
       </c>
@@ -2545,8 +2971,17 @@
       <c r="I65">
         <v>30283380</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K65">
+        <v>498000</v>
+      </c>
+      <c r="L65">
+        <v>30283380</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>114</v>
       </c>
@@ -2571,8 +3006,17 @@
       <c r="I66">
         <v>30283380</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K66">
+        <v>498000</v>
+      </c>
+      <c r="L66">
+        <v>30283380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -2597,8 +3041,17 @@
       <c r="I67">
         <v>30501360</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K67">
+        <v>486000</v>
+      </c>
+      <c r="L67">
+        <v>30501360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>117</v>
       </c>
@@ -2623,8 +3076,17 @@
       <c r="I68">
         <v>31003440</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K68">
+        <v>494000</v>
+      </c>
+      <c r="L68">
+        <v>31003440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>118</v>
       </c>
@@ -2649,8 +3111,17 @@
       <c r="I69">
         <v>31128960</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K69">
+        <v>496000</v>
+      </c>
+      <c r="L69">
+        <v>31128960</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -2675,8 +3146,17 @@
       <c r="I70">
         <v>31225600</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K70">
+        <v>544000</v>
+      </c>
+      <c r="L70">
+        <v>31225600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>122</v>
       </c>
@@ -2701,8 +3181,17 @@
       <c r="I71">
         <v>31225600</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K71">
+        <v>544000</v>
+      </c>
+      <c r="L71">
+        <v>31225600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>123</v>
       </c>
@@ -2728,7 +3217,7 @@
         <v>31290000</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>125</v>
       </c>
@@ -2753,8 +3242,17 @@
       <c r="I73">
         <v>31509940</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K73">
+        <v>539000</v>
+      </c>
+      <c r="L73">
+        <v>31509940</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>127</v>
       </c>
@@ -2780,7 +3278,7 @@
         <v>31540500</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -2805,8 +3303,17 @@
       <c r="I75">
         <v>32633100</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K75">
+        <v>505000</v>
+      </c>
+      <c r="L75">
+        <v>32633100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>131</v>
       </c>
@@ -2831,8 +3338,17 @@
       <c r="I76">
         <v>32895450</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K76">
+        <v>531000</v>
+      </c>
+      <c r="L76">
+        <v>32895450</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -2857,8 +3373,17 @@
       <c r="I77">
         <v>33066800</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K77">
+        <v>520000</v>
+      </c>
+      <c r="L77">
+        <v>33066800</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>135</v>
       </c>
@@ -2884,7 +3409,7 @@
         <v>33198620</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>137</v>
       </c>
@@ -2910,7 +3435,7 @@
         <v>33302320</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -2935,8 +3460,17 @@
       <c r="I80">
         <v>33642580</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K80">
+        <v>499000</v>
+      </c>
+      <c r="L80">
+        <v>33642580</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>140</v>
       </c>
@@ -2961,8 +3495,17 @@
       <c r="I81">
         <v>33647250</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K81">
+        <v>525000</v>
+      </c>
+      <c r="L81">
+        <v>33647250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>141</v>
       </c>
@@ -2987,8 +3530,17 @@
       <c r="I82">
         <v>33647250</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K82">
+        <v>525000</v>
+      </c>
+      <c r="L82">
+        <v>33647250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -3014,7 +3566,7 @@
         <v>33647250</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>143</v>
       </c>
@@ -3040,7 +3592,7 @@
         <v>33647250</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>144</v>
       </c>
@@ -3066,7 +3618,7 @@
         <v>34026050</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -3091,8 +3643,17 @@
       <c r="I86">
         <v>34356400</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K86">
+        <v>520000</v>
+      </c>
+      <c r="L86">
+        <v>34356400</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>147</v>
       </c>
@@ -3117,8 +3678,17 @@
       <c r="I87">
         <v>34554610</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K87">
+        <v>523000</v>
+      </c>
+      <c r="L87">
+        <v>34554610</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>148</v>
       </c>
@@ -3144,7 +3714,7 @@
         <v>34690000</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>150</v>
       </c>
@@ -3170,7 +3740,7 @@
         <v>34721300</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>151</v>
       </c>
@@ -3195,8 +3765,17 @@
       <c r="I90">
         <v>35106280</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K90">
+        <v>506000</v>
+      </c>
+      <c r="L90">
+        <v>35106280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>152</v>
       </c>
@@ -3221,8 +3800,17 @@
       <c r="I91">
         <v>36108840</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K91">
+        <v>524000</v>
+      </c>
+      <c r="L91">
+        <v>36108840</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>154</v>
       </c>
@@ -3248,7 +3836,7 @@
         <v>41714480</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>157</v>
       </c>
@@ -3273,8 +3861,17 @@
       <c r="I93">
         <v>48394550</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K93" s="3">
+        <v>520000</v>
+      </c>
+      <c r="L93">
+        <v>48864400</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>159</v>
       </c>
@@ -3299,8 +3896,17 @@
       <c r="I94">
         <v>48394550</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K94" s="3">
+        <v>520000</v>
+      </c>
+      <c r="L94">
+        <v>48864400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>160</v>
       </c>
@@ -3325,8 +3931,17 @@
       <c r="I95">
         <v>48699900</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K95" s="3">
+        <v>515000</v>
+      </c>
+      <c r="L95">
+        <v>49177350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>162</v>
       </c>
@@ -3351,8 +3966,17 @@
       <c r="I96">
         <v>48986370</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K96" s="3">
+        <v>518000</v>
+      </c>
+      <c r="L96">
+        <v>49463820</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>163</v>
       </c>
@@ -3378,7 +4002,7 @@
         <v>49255500</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>165</v>
       </c>
@@ -3403,8 +4027,17 @@
       <c r="I98">
         <v>50606620</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K98" s="3">
+        <v>517000</v>
+      </c>
+      <c r="L98">
+        <v>52118770</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>167</v>
       </c>
@@ -3429,8 +4062,17 @@
       <c r="I99">
         <v>50909050</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K99" s="3">
+        <v>520000</v>
+      </c>
+      <c r="L99">
+        <v>52421200</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>168</v>
       </c>
@@ -3455,8 +4097,17 @@
       <c r="I100">
         <v>60769800</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K100">
+        <v>455000</v>
+      </c>
+      <c r="L100">
+        <v>60769800</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>171</v>
       </c>
@@ -3481,8 +4132,17 @@
       <c r="I101">
         <v>60769800</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K101">
+        <v>455000</v>
+      </c>
+      <c r="L101">
+        <v>60769800</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>172</v>
       </c>
@@ -3507,8 +4167,17 @@
       <c r="I102">
         <v>60769800</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K102">
+        <v>455000</v>
+      </c>
+      <c r="L102">
+        <v>60769800</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>173</v>
       </c>
@@ -3533,8 +4202,17 @@
       <c r="I103">
         <v>60769800</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K103">
+        <v>455000</v>
+      </c>
+      <c r="L103">
+        <v>60769800</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>174</v>
       </c>
@@ -3559,8 +4237,17 @@
       <c r="I104">
         <v>61036920</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K104">
+        <v>457000</v>
+      </c>
+      <c r="L104">
+        <v>61036920</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>175</v>
       </c>
@@ -3586,7 +4273,7 @@
         <v>61169700</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>177</v>
       </c>
@@ -3612,7 +4299,7 @@
         <v>61857000</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>178</v>
       </c>
@@ -3636,6 +4323,379 @@
       </c>
       <c r="I107">
         <v>62269380</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>31</v>
+      </c>
+      <c r="D108" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" t="s">
+        <v>21</v>
+      </c>
+      <c r="G108" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H108">
+        <v>577000</v>
+      </c>
+      <c r="I108">
+        <v>21804830</v>
+      </c>
+      <c r="J108" s="2">
+        <v>45675</v>
+      </c>
+      <c r="K108">
+        <v>577000</v>
+      </c>
+      <c r="L108">
+        <v>21804830</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" t="s">
+        <v>81</v>
+      </c>
+      <c r="E109" t="s">
+        <v>50</v>
+      </c>
+      <c r="G109" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H109">
+        <v>526000</v>
+      </c>
+      <c r="I109">
+        <v>27609740</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" t="s">
+        <v>99</v>
+      </c>
+      <c r="C110" t="s">
+        <v>183</v>
+      </c>
+      <c r="D110" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" t="s">
+        <v>50</v>
+      </c>
+      <c r="G110" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H110">
+        <v>526000</v>
+      </c>
+      <c r="I110">
+        <v>28246200</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" t="s">
+        <v>99</v>
+      </c>
+      <c r="C111" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" t="s">
+        <v>71</v>
+      </c>
+      <c r="E111" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H111">
+        <v>531000</v>
+      </c>
+      <c r="I111">
+        <v>32895450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>185</v>
+      </c>
+      <c r="B112" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" t="s">
+        <v>186</v>
+      </c>
+      <c r="D112" t="s">
+        <v>73</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H112">
+        <v>535000</v>
+      </c>
+      <c r="I112">
+        <v>41960050</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>187</v>
+      </c>
+      <c r="B113" t="s">
+        <v>155</v>
+      </c>
+      <c r="C113" t="s">
+        <v>158</v>
+      </c>
+      <c r="D113" t="s">
+        <v>83</v>
+      </c>
+      <c r="E113" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H113">
+        <v>520000</v>
+      </c>
+      <c r="I113">
+        <v>48864400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>188</v>
+      </c>
+      <c r="B114" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114" t="s">
+        <v>158</v>
+      </c>
+      <c r="D114" t="s">
+        <v>119</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+      <c r="G114" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H114">
+        <v>520000</v>
+      </c>
+      <c r="I114">
+        <v>48864400</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115" t="s">
+        <v>155</v>
+      </c>
+      <c r="C115" t="s">
+        <v>158</v>
+      </c>
+      <c r="D115" t="s">
+        <v>71</v>
+      </c>
+      <c r="E115" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H115">
+        <v>520000</v>
+      </c>
+      <c r="I115">
+        <v>48864400</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" t="s">
+        <v>73</v>
+      </c>
+      <c r="E116" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H116">
+        <v>520000</v>
+      </c>
+      <c r="I116">
+        <v>48864400</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117" t="s">
+        <v>155</v>
+      </c>
+      <c r="C117" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" t="s">
+        <v>23</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H117">
+        <v>525000</v>
+      </c>
+      <c r="I117">
+        <v>49255500</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" t="s">
+        <v>155</v>
+      </c>
+      <c r="C118" t="s">
+        <v>193</v>
+      </c>
+      <c r="D118" t="s">
+        <v>81</v>
+      </c>
+      <c r="E118" t="s">
+        <v>50</v>
+      </c>
+      <c r="G118" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H118">
+        <v>525000</v>
+      </c>
+      <c r="I118">
+        <v>50725500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" t="s">
+        <v>193</v>
+      </c>
+      <c r="D119" t="s">
+        <v>73</v>
+      </c>
+      <c r="E119" t="s">
+        <v>50</v>
+      </c>
+      <c r="G119" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H119">
+        <v>530000</v>
+      </c>
+      <c r="I119">
+        <v>51208600</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>195</v>
+      </c>
+      <c r="B120" t="s">
+        <v>169</v>
+      </c>
+      <c r="C120" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" t="s">
+        <v>32</v>
+      </c>
+      <c r="G120" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H120">
+        <v>505000</v>
+      </c>
+      <c r="I120">
+        <v>66675150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>197</v>
+      </c>
+      <c r="B121" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" t="s">
+        <v>81</v>
+      </c>
+      <c r="E121" t="s">
+        <v>32</v>
+      </c>
+      <c r="G121" s="2">
+        <v>45675</v>
+      </c>
+      <c r="H121">
+        <v>505000</v>
+      </c>
+      <c r="I121">
+        <v>66675150</v>
       </c>
     </row>
   </sheetData>
